--- a/INTLINE/data/536/IDSE/JKSE Composite Index - Weekly.xlsx
+++ b/INTLINE/data/536/IDSE/JKSE Composite Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BTX2"/>
+  <dimension ref="A1:BUB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9834,15 +9834,35 @@
       </c>
       <c r="BTV1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="BTW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="BTX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="BTY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="BTZ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BTW1" s="1" t="inlineStr">
+      <c r="BUA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BTX1" s="1" t="inlineStr">
+      <c r="BUB1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -15514,19 +15534,31 @@
         <v>7078.76</v>
       </c>
       <c r="BTU2" t="n">
-        <v>7140.39</v>
-      </c>
-      <c r="BTV2" t="inlineStr">
+        <v>7210.83</v>
+      </c>
+      <c r="BTV2" t="n">
+        <v>7235.53</v>
+      </c>
+      <c r="BTW2" t="n">
+        <v>7225.61</v>
+      </c>
+      <c r="BTX2" t="n">
+        <v>7228.91</v>
+      </c>
+      <c r="BTY2" t="n">
+        <v>7228.91</v>
+      </c>
+      <c r="BTZ2" t="inlineStr">
         <is>
           <t>JKSE</t>
         </is>
       </c>
-      <c r="BTW2" t="inlineStr">
+      <c r="BUA2" t="inlineStr">
         <is>
           <t>Jakarta Stock Exchange Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="BTX2" t="inlineStr">
+      <c r="BUB2" t="inlineStr">
         <is>
           <t>Index: 1982=100</t>
         </is>

--- a/INTLINE/data/536/IDSE/JKSE Composite Index - Weekly.xlsx
+++ b/INTLINE/data/536/IDSE/JKSE Composite Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BUI2"/>
+  <dimension ref="A1:BUJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9889,15 +9889,20 @@
       </c>
       <c r="BUG1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="BUH1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BUH1" s="1" t="inlineStr">
+      <c r="BUI1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BUI1" s="1" t="inlineStr">
+      <c r="BUJ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -15602,19 +15607,22 @@
         <v>6936.97</v>
       </c>
       <c r="BUF2" t="n">
-        <v>7020.4</v>
-      </c>
-      <c r="BUG2" t="inlineStr">
+        <v>7042.94</v>
+      </c>
+      <c r="BUG2" t="n">
+        <v>7016.06</v>
+      </c>
+      <c r="BUH2" t="inlineStr">
         <is>
           <t>JKSE</t>
         </is>
       </c>
-      <c r="BUH2" t="inlineStr">
+      <c r="BUI2" t="inlineStr">
         <is>
           <t>Jakarta Stock Exchange Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="BUI2" t="inlineStr">
+      <c r="BUJ2" t="inlineStr">
         <is>
           <t>Index: 1982=100</t>
         </is>
